--- a/downloaded_files/EECS100_Lecture-35270.xlsx
+++ b/downloaded_files/EECS100_Lecture-35270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240027</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1230207</x:t>
@@ -323,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1034,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.421175463</x:v>
+        <x:v>45920.0905868056</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1066,7 +1075,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45907.421175463</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1094,9 +1103,11 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s"/>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,16 +1130,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
+      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1160,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4431201736</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4238201389</x:v>
+        <x:v>45907.4431201736</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.1381466435</x:v>
+        <x:v>45907.4238201389</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4198864583</x:v>
+        <x:v>45913.1381466435</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6729840278</x:v>
+        <x:v>45907.4198864583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1346,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.6729840278</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS100_Lecture-35270.xlsx
+++ b/downloaded_files/EECS100_Lecture-35270.xlsx
@@ -1043,7 +1043,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45920.0905868056</x:v>
+        <x:v>45921.7823510069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>

--- a/downloaded_files/EECS100_Lecture-35270.xlsx
+++ b/downloaded_files/EECS100_Lecture-35270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,15 +123,6 @@
     <x:t>Abdelrahman Mohammed Shawki  Abdelsalam Mohammed Attman</x:t>
   </x:si>
   <x:si>
-    <x:t>4240027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230207</x:t>
   </x:si>
   <x:si>
@@ -172,6 +163,12 @@
   </x:si>
   <x:si>
     <x:t>karim wael ismaiel yousef Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس ناصر عدلى سلامة</x:t>
   </x:si>
   <x:si>
     <x:t>1230231</x:t>
@@ -1043,7 +1040,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.7823510069</x:v>
+        <x:v>45907.421175463</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1075,7 +1072,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.421175463</x:v>
+        <x:v>45916.6825238773</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1103,11 +1100,9 @@
       <x:c r="C14" s="2" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
+      <x:c r="D14" s="2" t="s"/>
       <x:c r="E14" s="3">
-        <x:v>45916.6825238773</x:v>
+        <x:v>45912.087896794</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1130,14 +1125,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="D15" s="2" t="s"/>
       <x:c r="E15" s="3">
-        <x:v>45912.087896794</x:v>
+        <x:v>45909.514818831</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1166,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.514818831</x:v>
+        <x:v>45907.4201094907</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,11 +1194,9 @@
       <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.4201094907</x:v>
+        <x:v>45922.4978819097</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,13 +1219,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>53</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.4431201736</x:v>
@@ -1256,13 +1251,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.4238201389</x:v>
@@ -1288,13 +1283,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45913.1381466435</x:v>
@@ -1320,13 +1315,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.4198864583</x:v>
@@ -1352,13 +1347,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6729840278</x:v>

--- a/downloaded_files/EECS100_Lecture-35270.xlsx
+++ b/downloaded_files/EECS100_Lecture-35270.xlsx
@@ -66,7 +66,7 @@
     <x:t>بيشوي ماهر فؤاد بدرس بدروس</x:t>
   </x:si>
   <x:si>
-    <x:t>Beshoy Maher Fouad Badras</x:t>
+    <x:t>Beshoy Maher Fouad Badras Badros</x:t>
   </x:si>
   <x:si>
     <x:t>1220234</x:t>

--- a/downloaded_files/EECS100_Lecture-35270.xlsx
+++ b/downloaded_files/EECS100_Lecture-35270.xlsx
@@ -1379,11 +1379,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:13)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:12)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:13)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:12)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Laboratory (EECS100) Location : [20320]20320-32-الجيزة الرئيسي Time : Monday(11:12)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
